--- a/Excel/diplomatic_relationships.xlsx
+++ b/Excel/diplomatic_relationships.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\BD6\projet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98BF4EFD-31D0-44F5-B5E3-265A3F29307B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{F0277BC6-5C27-44D5-A6D4-7FDA8679F247}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11390"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>country_name_1</t>
   </si>
@@ -44,12 +38,48 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>Empire ottoman</t>
+  </si>
+  <si>
+    <t>Ordre de Saint-Jean de Jérusalem</t>
+  </si>
+  <si>
+    <t>En guerre</t>
+  </si>
+  <si>
+    <t>Royaume de France</t>
+  </si>
+  <si>
+    <t>Confédération Suisse</t>
+  </si>
+  <si>
+    <t>Alliés commerciaux</t>
+  </si>
+  <si>
+    <t>Cambodge</t>
+  </si>
+  <si>
+    <t>Lan Xang</t>
+  </si>
+  <si>
+    <t>Perse</t>
+  </si>
+  <si>
+    <t>Alliés</t>
+  </si>
+  <si>
+    <t>Khanat dzoungar</t>
+  </si>
+  <si>
+    <t>Neutres</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,21 +417,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DBA2FD-F93B-45CD-98F2-B8A0E6D727EE}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -414,6 +444,116 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/diplomatic_relationships.xlsx
+++ b/Excel/diplomatic_relationships.xlsx
@@ -43,18 +43,12 @@
     <t>Empire ottoman</t>
   </si>
   <si>
-    <t>Ordre de Saint-Jean de Jérusalem</t>
-  </si>
-  <si>
     <t>En guerre</t>
   </si>
   <si>
     <t>Royaume de France</t>
   </si>
   <si>
-    <t>Confédération Suisse</t>
-  </si>
-  <si>
     <t>Alliés commerciaux</t>
   </si>
   <si>
@@ -74,6 +68,12 @@
   </si>
   <si>
     <t>Neutres</t>
+  </si>
+  <si>
+    <t>Ordre de Saint-Jean de Jerusalem</t>
+  </si>
+  <si>
+    <t>Confederation Suisse</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -428,7 +428,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,109 +449,109 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/diplomatic_relationships.xlsx
+++ b/Excel/diplomatic_relationships.xlsx
@@ -49,9 +49,6 @@
     <t>Royaume de France</t>
   </si>
   <si>
-    <t>Alliés commerciaux</t>
-  </si>
-  <si>
     <t>Cambodge</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>Perse</t>
   </si>
   <si>
-    <t>Alliés</t>
-  </si>
-  <si>
     <t>Khanat dzoungar</t>
   </si>
   <si>
@@ -74,6 +68,12 @@
   </si>
   <si>
     <t>Confederation Suisse</t>
+  </si>
+  <si>
+    <t>Allies</t>
+  </si>
+  <si>
+    <t>Allies commerciaux</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -428,7 +428,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,7 +449,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -471,29 +471,29 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -501,10 +501,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -512,46 +512,46 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
